--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H2">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I2">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J2">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>58.378819</v>
+        <v>0.052331</v>
       </c>
       <c r="N2">
-        <v>175.136457</v>
+        <v>0.104662</v>
       </c>
       <c r="O2">
-        <v>0.6920327730022572</v>
+        <v>0.0001084679645805325</v>
       </c>
       <c r="P2">
-        <v>0.6920327730022573</v>
+        <v>7.231459099251979E-05</v>
       </c>
       <c r="Q2">
-        <v>37.7828592250285</v>
+        <v>0.1941881740425</v>
       </c>
       <c r="R2">
-        <v>226.697155350171</v>
+        <v>0.7767526961700001</v>
       </c>
       <c r="S2">
-        <v>0.01455274938317964</v>
+        <v>4.66109861069629E-05</v>
       </c>
       <c r="T2">
-        <v>0.00988301746557671</v>
+        <v>2.560253931789616E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H3">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I3">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J3">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.979641</v>
+        <v>112.0466536666667</v>
       </c>
       <c r="N3">
-        <v>77.938923</v>
+        <v>336.139961</v>
       </c>
       <c r="O3">
-        <v>0.3079672269977427</v>
+        <v>0.232242312611706</v>
       </c>
       <c r="P3">
-        <v>0.3079672269977428</v>
+        <v>0.2322507098656298</v>
       </c>
       <c r="Q3">
-        <v>16.8140626246615</v>
+        <v>415.7790809100225</v>
       </c>
       <c r="R3">
-        <v>100.884375747969</v>
+        <v>2494.674485460135</v>
       </c>
       <c r="S3">
-        <v>0.006476239345266278</v>
+        <v>0.09979944998927372</v>
       </c>
       <c r="T3">
-        <v>0.004398123328812335</v>
+        <v>0.08222694547991227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,25 +658,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8756339999999999</v>
+        <v>3.7107675</v>
       </c>
       <c r="H4">
-        <v>2.626902</v>
+        <v>7.421535</v>
       </c>
       <c r="I4">
-        <v>0.02845125902248993</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J4">
-        <v>0.02898259453590742</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,33 +685,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.378819</v>
+        <v>335.9255523333333</v>
       </c>
       <c r="N4">
-        <v>175.136457</v>
+        <v>1007.776657</v>
       </c>
       <c r="O4">
-        <v>0.6920327730022572</v>
+        <v>0.6962825268423649</v>
       </c>
       <c r="P4">
-        <v>0.6920327730022573</v>
+        <v>0.6963077025354368</v>
       </c>
       <c r="Q4">
-        <v>51.11847879624599</v>
+        <v>1246.541622018083</v>
       </c>
       <c r="R4">
-        <v>460.066309166214</v>
+        <v>7479.249732108495</v>
       </c>
       <c r="S4">
-        <v>0.0196892036767392</v>
+        <v>0.2992073771336843</v>
       </c>
       <c r="T4">
-        <v>0.02005690526548408</v>
+        <v>0.2465234897527321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -726,19 +726,19 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8756339999999999</v>
+        <v>3.7107675</v>
       </c>
       <c r="H5">
-        <v>2.626902</v>
+        <v>7.421535</v>
       </c>
       <c r="I5">
-        <v>0.02845125902248993</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J5">
-        <v>0.02898259453590742</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.979641</v>
+        <v>34.43127566666667</v>
       </c>
       <c r="N5">
-        <v>77.938923</v>
+        <v>103.293827</v>
       </c>
       <c r="O5">
-        <v>0.3079672269977427</v>
+        <v>0.07136669258134852</v>
       </c>
       <c r="P5">
-        <v>0.3079672269977428</v>
+        <v>0.07136927300794077</v>
       </c>
       <c r="Q5">
-        <v>22.748656967394</v>
+        <v>127.7664587274075</v>
       </c>
       <c r="R5">
-        <v>204.737912706546</v>
+        <v>766.5987523644451</v>
       </c>
       <c r="S5">
-        <v>0.008762055345750733</v>
+        <v>0.03066778222743708</v>
       </c>
       <c r="T5">
-        <v>0.008925689270423339</v>
+        <v>0.0252678552584841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,87 +782,87 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.540639</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H6">
-        <v>10.621917</v>
+        <v>2.626902</v>
       </c>
       <c r="I6">
-        <v>0.1150430856889177</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J6">
-        <v>0.1171915486778959</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>58.378819</v>
+        <v>0.052331</v>
       </c>
       <c r="N6">
-        <v>175.136457</v>
+        <v>0.104662</v>
       </c>
       <c r="O6">
-        <v>0.6920327730022572</v>
+        <v>0.0001084679645805325</v>
       </c>
       <c r="P6">
-        <v>0.6920327730022573</v>
+        <v>7.231459099251979E-05</v>
       </c>
       <c r="Q6">
-        <v>206.698323325341</v>
+        <v>0.04582280285400001</v>
       </c>
       <c r="R6">
-        <v>1860.284909928069</v>
+        <v>0.274936817124</v>
       </c>
       <c r="S6">
-        <v>0.07961358560403799</v>
+        <v>1.099884706028722E-05</v>
       </c>
       <c r="T6">
-        <v>0.08110039240399332</v>
+        <v>9.062190199097632E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.540639</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H7">
-        <v>10.621917</v>
+        <v>2.626902</v>
       </c>
       <c r="I7">
-        <v>0.1150430856889177</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J7">
-        <v>0.1171915486778959</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.979641</v>
+        <v>112.0466536666667</v>
       </c>
       <c r="N7">
-        <v>77.938923</v>
+        <v>336.139961</v>
       </c>
       <c r="O7">
-        <v>0.3079672269977427</v>
+        <v>0.232242312611706</v>
       </c>
       <c r="P7">
-        <v>0.3079672269977428</v>
+        <v>0.2322507098656298</v>
       </c>
       <c r="Q7">
-        <v>91.98453013059901</v>
+        <v>98.111859536758</v>
       </c>
       <c r="R7">
-        <v>827.8607711753911</v>
+        <v>883.006735830822</v>
       </c>
       <c r="S7">
-        <v>0.03542950008487968</v>
+        <v>0.02354978898352099</v>
       </c>
       <c r="T7">
-        <v>0.03609115627390259</v>
+        <v>0.02910477785728593</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,25 +906,25 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.045475</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H8">
-        <v>2.09095</v>
+        <v>2.626902</v>
       </c>
       <c r="I8">
-        <v>0.03396976365300761</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J8">
-        <v>0.02306943922721732</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.378819</v>
+        <v>335.9255523333333</v>
       </c>
       <c r="N8">
-        <v>175.136457</v>
+        <v>1007.776657</v>
       </c>
       <c r="O8">
-        <v>0.6920327730022572</v>
+        <v>0.6962825268423649</v>
       </c>
       <c r="P8">
-        <v>0.6920327730022573</v>
+        <v>0.6963077025354368</v>
       </c>
       <c r="Q8">
-        <v>61.03359579402501</v>
+        <v>294.147835091846</v>
       </c>
       <c r="R8">
-        <v>366.2015747641501</v>
+        <v>2647.330515826614</v>
       </c>
       <c r="S8">
-        <v>0.02350818973902214</v>
+        <v>0.07060430287509971</v>
       </c>
       <c r="T8">
-        <v>0.01596480800001825</v>
+        <v>0.08725863965856544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -974,19 +974,19 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.045475</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H9">
-        <v>2.09095</v>
+        <v>2.626902</v>
       </c>
       <c r="I9">
-        <v>0.03396976365300761</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J9">
-        <v>0.02306943922721732</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.979641</v>
+        <v>34.43127566666667</v>
       </c>
       <c r="N9">
-        <v>77.938923</v>
+        <v>103.293827</v>
       </c>
       <c r="O9">
-        <v>0.3079672269977427</v>
+        <v>0.07136669258134852</v>
       </c>
       <c r="P9">
-        <v>0.3079672269977428</v>
+        <v>0.07136927300794077</v>
       </c>
       <c r="Q9">
-        <v>27.16106517447501</v>
+        <v>30.14919563710601</v>
       </c>
       <c r="R9">
-        <v>162.96639104685</v>
+        <v>271.342760733954</v>
       </c>
       <c r="S9">
-        <v>0.01046157391398547</v>
+        <v>0.007236711225626407</v>
       </c>
       <c r="T9">
-        <v>0.007104631227199066</v>
+        <v>0.008943726535578208</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.243757666666667</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H10">
-        <v>3.731273</v>
+        <v>3.145109</v>
       </c>
       <c r="I10">
-        <v>0.04041240008444284</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J10">
-        <v>0.04116711337605242</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>58.378819</v>
+        <v>0.052331</v>
       </c>
       <c r="N10">
-        <v>175.136457</v>
+        <v>0.104662</v>
       </c>
       <c r="O10">
-        <v>0.6920327730022572</v>
+        <v>0.0001084679645805325</v>
       </c>
       <c r="P10">
-        <v>0.6920327730022573</v>
+        <v>7.231459099251979E-05</v>
       </c>
       <c r="Q10">
-        <v>72.60910370219565</v>
+        <v>0.05486223302633333</v>
       </c>
       <c r="R10">
-        <v>653.481933319761</v>
+        <v>0.329173398158</v>
       </c>
       <c r="S10">
-        <v>0.02796670529411363</v>
+        <v>1.316858142364385E-05</v>
       </c>
       <c r="T10">
-        <v>0.02848899162612788</v>
+        <v>1.084988170662391E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.243757666666667</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H11">
-        <v>3.731273</v>
+        <v>3.145109</v>
       </c>
       <c r="I11">
-        <v>0.04041240008444284</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J11">
-        <v>0.04116711337605242</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.979641</v>
+        <v>112.0466536666667</v>
       </c>
       <c r="N11">
-        <v>77.938923</v>
+        <v>336.139961</v>
       </c>
       <c r="O11">
-        <v>0.3079672269977427</v>
+        <v>0.232242312611706</v>
       </c>
       <c r="P11">
-        <v>0.3079672269977428</v>
+        <v>0.2322507098656298</v>
       </c>
       <c r="Q11">
-        <v>32.31237767099766</v>
+        <v>117.4663129556388</v>
       </c>
       <c r="R11">
-        <v>290.811399038979</v>
+        <v>1057.196816600749</v>
       </c>
       <c r="S11">
-        <v>0.01244569479032921</v>
+        <v>0.02819543830724279</v>
       </c>
       <c r="T11">
-        <v>0.01267812174992455</v>
+        <v>0.03484625569661551</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>23.42392733333334</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H12">
-        <v>70.271782</v>
+        <v>3.145109</v>
       </c>
       <c r="I12">
-        <v>0.7610945028226961</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J12">
-        <v>0.7753081633885379</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.378819</v>
+        <v>335.9255523333333</v>
       </c>
       <c r="N12">
-        <v>175.136457</v>
+        <v>1007.776657</v>
       </c>
       <c r="O12">
-        <v>0.6920327730022572</v>
+        <v>0.6962825268423649</v>
       </c>
       <c r="P12">
-        <v>0.6920327730022573</v>
+        <v>0.6963077025354368</v>
       </c>
       <c r="Q12">
-        <v>1367.461214061819</v>
+        <v>352.1741593245125</v>
       </c>
       <c r="R12">
-        <v>12307.15092655637</v>
+        <v>3169.567433920613</v>
       </c>
       <c r="S12">
-        <v>0.5267023393051646</v>
+        <v>0.08453236108967976</v>
       </c>
       <c r="T12">
-        <v>0.5365386582410571</v>
+        <v>0.1044720864797815</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>23.42392733333334</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H13">
-        <v>70.271782</v>
+        <v>3.145109</v>
       </c>
       <c r="I13">
-        <v>0.7610945028226961</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J13">
-        <v>0.7753081633885379</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,772 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.979641</v>
+        <v>34.43127566666667</v>
       </c>
       <c r="N13">
-        <v>77.938923</v>
+        <v>103.293827</v>
       </c>
       <c r="O13">
-        <v>0.3079672269977427</v>
+        <v>0.07136669258134852</v>
       </c>
       <c r="P13">
-        <v>0.3079672269977428</v>
+        <v>0.07136927300794077</v>
       </c>
       <c r="Q13">
-        <v>608.5452229300874</v>
+        <v>36.09670499357145</v>
       </c>
       <c r="R13">
-        <v>5476.907006370786</v>
+        <v>324.870344942143</v>
       </c>
       <c r="S13">
-        <v>0.2343921635175314</v>
+        <v>0.008664291856383923</v>
       </c>
       <c r="T13">
-        <v>0.2387695051474809</v>
+        <v>0.01070804880447989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.2329145</v>
+      </c>
+      <c r="H14">
+        <v>2.465829</v>
+      </c>
+      <c r="I14">
+        <v>0.1427762648860562</v>
+      </c>
+      <c r="J14">
+        <v>0.1176322281990683</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.052331</v>
+      </c>
+      <c r="N14">
+        <v>0.104662</v>
+      </c>
+      <c r="O14">
+        <v>0.0001084679645805325</v>
+      </c>
+      <c r="P14">
+        <v>7.231459099251979E-05</v>
+      </c>
+      <c r="Q14">
+        <v>0.06451964869950001</v>
+      </c>
+      <c r="R14">
+        <v>0.258078594798</v>
+      </c>
+      <c r="S14">
+        <v>1.548665084260146E-05</v>
+      </c>
+      <c r="T14">
+        <v>8.506526469754379E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.2329145</v>
+      </c>
+      <c r="H15">
+        <v>2.465829</v>
+      </c>
+      <c r="I15">
+        <v>0.1427762648860562</v>
+      </c>
+      <c r="J15">
+        <v>0.1176322281990683</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>112.0466536666667</v>
+      </c>
+      <c r="N15">
+        <v>336.139961</v>
+      </c>
+      <c r="O15">
+        <v>0.232242312611706</v>
+      </c>
+      <c r="P15">
+        <v>0.2322507098656298</v>
+      </c>
+      <c r="Q15">
+        <v>138.1439439821115</v>
+      </c>
+      <c r="R15">
+        <v>828.863663892669</v>
+      </c>
+      <c r="S15">
+        <v>0.0331586899431992</v>
+      </c>
+      <c r="T15">
+        <v>0.02732016850230938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.2329145</v>
+      </c>
+      <c r="H16">
+        <v>2.465829</v>
+      </c>
+      <c r="I16">
+        <v>0.1427762648860562</v>
+      </c>
+      <c r="J16">
+        <v>0.1176322281990683</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>335.9255523333333</v>
+      </c>
+      <c r="N16">
+        <v>1007.776657</v>
+      </c>
+      <c r="O16">
+        <v>0.6962825268423649</v>
+      </c>
+      <c r="P16">
+        <v>0.6963077025354368</v>
+      </c>
+      <c r="Q16">
+        <v>414.1674843922755</v>
+      </c>
+      <c r="R16">
+        <v>2485.004906353653</v>
+      </c>
+      <c r="S16">
+        <v>0.099412618487978</v>
+      </c>
+      <c r="T16">
+        <v>0.0819082265614175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.2329145</v>
+      </c>
+      <c r="H17">
+        <v>2.465829</v>
+      </c>
+      <c r="I17">
+        <v>0.1427762648860562</v>
+      </c>
+      <c r="J17">
+        <v>0.1176322281990683</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>34.43127566666667</v>
+      </c>
+      <c r="N17">
+        <v>103.293827</v>
+      </c>
+      <c r="O17">
+        <v>0.07136669258134852</v>
+      </c>
+      <c r="P17">
+        <v>0.07136927300794077</v>
+      </c>
+      <c r="Q17">
+        <v>42.45081902293051</v>
+      </c>
+      <c r="R17">
+        <v>254.704914137583</v>
+      </c>
+      <c r="S17">
+        <v>0.01018946980403635</v>
+      </c>
+      <c r="T17">
+        <v>0.008395326608871698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.886924</v>
+      </c>
+      <c r="I18">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J18">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.052331</v>
+      </c>
+      <c r="N18">
+        <v>0.104662</v>
+      </c>
+      <c r="O18">
+        <v>0.0001084679645805325</v>
+      </c>
+      <c r="P18">
+        <v>7.231459099251979E-05</v>
+      </c>
+      <c r="Q18">
+        <v>0.05035853994800001</v>
+      </c>
+      <c r="R18">
+        <v>0.302151239688</v>
+      </c>
+      <c r="S18">
+        <v>1.208756000439781E-05</v>
+      </c>
+      <c r="T18">
+        <v>9.959204560482171E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H19">
+        <v>2.886924</v>
+      </c>
+      <c r="I19">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J19">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>112.0466536666667</v>
+      </c>
+      <c r="N19">
+        <v>336.139961</v>
+      </c>
+      <c r="O19">
+        <v>0.232242312611706</v>
+      </c>
+      <c r="P19">
+        <v>0.2322507098656298</v>
+      </c>
+      <c r="Q19">
+        <v>107.8233911966627</v>
+      </c>
+      <c r="R19">
+        <v>970.4105207699639</v>
+      </c>
+      <c r="S19">
+        <v>0.02588084786241068</v>
+      </c>
+      <c r="T19">
+        <v>0.03198569330369665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H20">
+        <v>2.886924</v>
+      </c>
+      <c r="I20">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J20">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>335.9255523333333</v>
+      </c>
+      <c r="N20">
+        <v>1007.776657</v>
+      </c>
+      <c r="O20">
+        <v>0.6962825268423649</v>
+      </c>
+      <c r="P20">
+        <v>0.6963077025354368</v>
+      </c>
+      <c r="Q20">
+        <v>323.2638464147853</v>
+      </c>
+      <c r="R20">
+        <v>2909.374617733068</v>
+      </c>
+      <c r="S20">
+        <v>0.07759301887675839</v>
+      </c>
+      <c r="T20">
+        <v>0.09589587317595569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H21">
+        <v>2.886924</v>
+      </c>
+      <c r="I21">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J21">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>34.43127566666667</v>
+      </c>
+      <c r="N21">
+        <v>103.293827</v>
+      </c>
+      <c r="O21">
+        <v>0.07136669258134852</v>
+      </c>
+      <c r="P21">
+        <v>0.07136927300794077</v>
+      </c>
+      <c r="Q21">
+        <v>33.13349202423867</v>
+      </c>
+      <c r="R21">
+        <v>298.201428218148</v>
+      </c>
+      <c r="S21">
+        <v>0.007953031867321388</v>
+      </c>
+      <c r="T21">
+        <v>0.009829014856662937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.41589</v>
+      </c>
+      <c r="I22">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J22">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.052331</v>
+      </c>
+      <c r="N22">
+        <v>0.104662</v>
+      </c>
+      <c r="O22">
+        <v>0.0001084679645805325</v>
+      </c>
+      <c r="P22">
+        <v>7.231459099251979E-05</v>
+      </c>
+      <c r="Q22">
+        <v>0.04214197986333334</v>
+      </c>
+      <c r="R22">
+        <v>0.25285187918</v>
+      </c>
+      <c r="S22">
+        <v>1.011533914263923E-05</v>
+      </c>
+      <c r="T22">
+        <v>8.334248738665538E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.41589</v>
+      </c>
+      <c r="I23">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J23">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>112.0466536666667</v>
+      </c>
+      <c r="N23">
+        <v>336.139961</v>
+      </c>
+      <c r="O23">
+        <v>0.232242312611706</v>
+      </c>
+      <c r="P23">
+        <v>0.2322507098656298</v>
+      </c>
+      <c r="Q23">
+        <v>90.2307967089211</v>
+      </c>
+      <c r="R23">
+        <v>812.07717038029</v>
+      </c>
+      <c r="S23">
+        <v>0.02165809752605865</v>
+      </c>
+      <c r="T23">
+        <v>0.02676686902581006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.41589</v>
+      </c>
+      <c r="I24">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J24">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>335.9255523333333</v>
+      </c>
+      <c r="N24">
+        <v>1007.776657</v>
+      </c>
+      <c r="O24">
+        <v>0.6962825268423649</v>
+      </c>
+      <c r="P24">
+        <v>0.6963077025354368</v>
+      </c>
+      <c r="Q24">
+        <v>270.5197275421922</v>
+      </c>
+      <c r="R24">
+        <v>2434.67754787973</v>
+      </c>
+      <c r="S24">
+        <v>0.06493284837916474</v>
+      </c>
+      <c r="T24">
+        <v>0.08024938690698459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.41589</v>
+      </c>
+      <c r="I25">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J25">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>34.43127566666667</v>
+      </c>
+      <c r="N25">
+        <v>103.293827</v>
+      </c>
+      <c r="O25">
+        <v>0.07136669258134852</v>
+      </c>
+      <c r="P25">
+        <v>0.07136927300794077</v>
+      </c>
+      <c r="Q25">
+        <v>27.72739152344778</v>
+      </c>
+      <c r="R25">
+        <v>249.54652371103</v>
+      </c>
+      <c r="S25">
+        <v>0.00665540560054337</v>
+      </c>
+      <c r="T25">
+        <v>0.008225300943863928</v>
       </c>
     </row>
   </sheetData>
